--- a/ConsultaIBGE_CheckPoint2_Disp/dados_ibge/dados_ibge_cidade.xlsx
+++ b/ConsultaIBGE_CheckPoint2_Disp/dados_ibge/dados_ibge_cidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gust_\Documents\GitHub\rpa-cp2-fiap\ConsultaIBGE_CheckPoint2_Disp\dados_ibge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE26E44-7932-4DEB-B830-9830B193F4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576AA4C-3481-4453-89B0-F8607B919AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28B6AF94-7C28-4272-8876-8D3588CAED95}"/>
+    <workbookView xWindow="9408" yWindow="1992" windowWidth="11292" windowHeight="9420" firstSheet="1" activeTab="2" xr2:uid="{28B6AF94-7C28-4272-8876-8D3588CAED95}"/>
   </bookViews>
   <sheets>
     <sheet name="Municípios" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Grafico" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="27" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Pequena, Média ou Grande ?</t>
   </si>
@@ -69,6 +72,84 @@
   </si>
   <si>
     <t>Área da unidade territorial</t>
+  </si>
+  <si>
+    <t>Pequena</t>
+  </si>
+  <si>
+    <t>Anhembi</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>24.534,54</t>
+  </si>
+  <si>
+    <t>30,3</t>
+  </si>
+  <si>
+    <t>1,95</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Soma de População no último censo</t>
+  </si>
+  <si>
+    <t>Adolfo</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>32.578,28</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2,33</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Araruama</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>31.109,37</t>
+  </si>
+  <si>
+    <t>64,84</t>
+  </si>
+  <si>
+    <t>Barra Mansa</t>
+  </si>
+  <si>
+    <t>34.816,53</t>
+  </si>
+  <si>
+    <t>14,3</t>
+  </si>
+  <si>
+    <t>30,25</t>
   </si>
 </sst>
 </file>
@@ -129,12 +210,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,9 +287,1187 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SP</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Anhembi</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>5674</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0667-42F3-82F9-0A4713BFCC9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1397526927"/>
+        <c:axId val="701592751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1397526927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="701592751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="701592751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1397526927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SP</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Adolfo</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Anhembi</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>4351</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5674</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AC6-4709-94F0-22624BEE7492}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1399994831"/>
+        <c:axId val="704339791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1399994831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="704339791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="704339791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1399994831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RJ</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Adolfo</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Anhembi</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Araruama</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>129671</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E63-4FD2-BCD2-56172593446A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SP</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Adolfo</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Anhembi</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Araruama</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>4351</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5674</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E63-4FD2-BCD2-56172593446A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1397533423"/>
+        <c:axId val="701599999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1397533423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="701599999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="701599999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1397533423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[dados_ibge_cidade.xlsx]PivoTable!Pivo Table</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivoTable!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivoTable!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Adolfo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Anhembi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Araruama</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Barra Mansa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivoTable!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>129671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A04D-4C44-8051-F3DCE5CDE4F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivoTable!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivoTable!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Adolfo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Anhembi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Araruama</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Barra Mansa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivoTable!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A04D-4C44-8051-F3DCE5CDE4F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1408655999"/>
+        <c:axId val="1631992671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1408655999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1631992671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1631992671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1408655999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F16070-8087-7CEF-9CF4-6737E6D57C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BFE616-9FA4-B1D3-CCB7-361328BF836D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154F8978-7694-3B11-518C-1C53DA5568A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4008083C-6BE5-DE4D-F9E1-0B6A7C5FFAA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gustavo dias" refreshedDate="45443.761693287037" createdVersion="1" refreshedVersion="8" recordCount="4" xr:uid="{544511F5-BF83-443D-A125-281A442BEB6D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela4"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Pequena, Média ou Grande ?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Municipio" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Anhembi"/>
+        <s v="Adolfo"/>
+        <s v="Araruama"/>
+        <s v="Barra Mansa"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="UF" numFmtId="0">
+      <sharedItems count="2">
+        <s v="SP"/>
+        <s v="RJ"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Cod. Municipio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3300209" maxValue="3502309"/>
+    </cacheField>
+    <cacheField name="População no último censo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4351" maxValue="169894"/>
+    </cacheField>
+    <cacheField name="Salário médio mensal dos trabalhadores formais" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="2"/>
+    </cacheField>
+    <cacheField name="Matrículas no ensino fundamental" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="17.663" maxValue="778"/>
+    </cacheField>
+    <cacheField name="PIB per capita" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Mortalidade Infantil" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="12" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Área urbanizada" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Área da unidade territorial" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="211055" maxValue="736557"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <s v="Pequena"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3502309"/>
+    <n v="5674"/>
+    <s v="2,1"/>
+    <n v="778"/>
+    <s v="24.534,54"/>
+    <s v="30,3"/>
+    <s v="1,95"/>
+    <n v="736557"/>
+  </r>
+  <r>
+    <s v="Pequena"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3500204"/>
+    <n v="4351"/>
+    <s v="1,8"/>
+    <n v="497"/>
+    <s v="32.578,28"/>
+    <s v="-"/>
+    <s v="2,33"/>
+    <n v="211055"/>
+  </r>
+  <r>
+    <s v="Média"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3300209"/>
+    <n v="129671"/>
+    <s v="1,9"/>
+    <n v="17.663"/>
+    <s v="31.109,37"/>
+    <n v="12"/>
+    <s v="64,84"/>
+    <n v="638276"/>
+  </r>
+  <r>
+    <s v="Média"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3300407"/>
+    <n v="169894"/>
+    <n v="2"/>
+    <n v="18.221"/>
+    <s v="34.816,53"/>
+    <s v="14,3"/>
+    <s v="30,25"/>
+    <n v="547133"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0F08212-96C2-4783-9E6E-2C60867A1F7D}" name="Pivo Table" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Dados" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
+  <location ref="A1:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" includeNewItemsInFilter="1">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de População no último censo" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}" name="Tabela4" displayName="Tabela4" ref="A1:K2" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:K2" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}" name="Tabela4" displayName="Tabela4" ref="A1:K5" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:K5" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{467208B2-E4DF-4D1C-B754-D7EAEA0E6BA3}" name="Pequena, Média ou Grande ?"/>
     <tableColumn id="2" xr3:uid="{8278DB2E-051B-403F-9CDB-3775558B5782}" name="Municipio"/>
@@ -518,9 +1782,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E5EC6-57C0-4B4A-9117-7632484C994F}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -575,7 +1839,144 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K2" s="4"/>
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>3502309</v>
+      </c>
+      <c r="E2">
+        <v>5674</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>778</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4">
+        <v>736557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>3500204</v>
+      </c>
+      <c r="E3">
+        <v>4351</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>497</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4">
+        <v>211055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>3300209</v>
+      </c>
+      <c r="E4">
+        <v>129671</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>17.663</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4">
+        <v>638276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>3300407</v>
+      </c>
+      <c r="E5">
+        <v>169894</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>18.221</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="4">
+        <v>547133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -588,17 +1989,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C3567A-1E79-4E63-BFA7-3C6BE9EFB2B1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:G10"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.44140625" bestFit="1" customWidth="1"/>
@@ -606,7 +2008,92 @@
     <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7">
+        <v>4351</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>5674</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7">
+        <v>129671</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>129671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7">
+        <v>169894</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>169894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
+        <v>299565</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10025</v>
+      </c>
+      <c r="D7" s="7">
+        <v>309590</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -615,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF5C437-5537-489B-99EA-98C26B04DB2B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -626,10 +2113,31 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100223DA578DE33E44E8DD11C312C11F0C0" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="346ab74657b96891a140619d15345a6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bc641a7-997f-4048-a412-d593c6319208" xmlns:ns3="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01055a3472747d3415116a8d374e9951" ns2:_="" ns3:_="">
     <xsd:import namespace="7bc641a7-997f-4048-a412-d593c6319208"/>
@@ -858,27 +2366,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A287C5-F434-4695-83F0-EED2E79F2819}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25C0718-6F6F-4264-BAB0-F03BD7013163}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{342E861F-38C4-4FCE-AB34-3E1BC43BC858}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -895,24 +2403,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A287C5-F434-4695-83F0-EED2E79F2819}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
-    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25C0718-6F6F-4264-BAB0-F03BD7013163}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>